--- a/data/pca/factorExposure/factorExposure_2014-12-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01049318209629886</v>
+        <v>-0.01133234265938614</v>
       </c>
       <c r="C2">
-        <v>0.05324686161247969</v>
+        <v>0.06405269552556846</v>
       </c>
       <c r="D2">
-        <v>-0.1550390848769376</v>
+        <v>0.03852324045947272</v>
       </c>
       <c r="E2">
-        <v>-0.1115904860387124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.1408470870532676</v>
+      </c>
+      <c r="F2">
+        <v>0.05475661519834011</v>
+      </c>
+      <c r="G2">
+        <v>0.1248425598941709</v>
+      </c>
+      <c r="H2">
+        <v>-0.05924491684856767</v>
+      </c>
+      <c r="I2">
+        <v>-0.07482228947029189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.03597937325449297</v>
+        <v>-0.01967076746589873</v>
       </c>
       <c r="C4">
-        <v>0.1342198285046798</v>
+        <v>0.1490717816532742</v>
       </c>
       <c r="D4">
-        <v>-0.1023922134723688</v>
+        <v>0.005688438093521281</v>
       </c>
       <c r="E4">
-        <v>-0.04597411858580255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.09411578720871465</v>
+      </c>
+      <c r="F4">
+        <v>-0.0670834116386972</v>
+      </c>
+      <c r="G4">
+        <v>0.06337239127335914</v>
+      </c>
+      <c r="H4">
+        <v>-0.09686667159267558</v>
+      </c>
+      <c r="I4">
+        <v>0.02295855319730263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.01616545030025626</v>
+        <v>-0.0302012132719433</v>
       </c>
       <c r="C6">
-        <v>0.05430523241255451</v>
+        <v>0.06318370863143721</v>
       </c>
       <c r="D6">
-        <v>-0.08763438361190382</v>
+        <v>0.0191698872821531</v>
       </c>
       <c r="E6">
-        <v>-0.07247866802929835</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.1093306763826669</v>
+      </c>
+      <c r="F6">
+        <v>0.03437808000292215</v>
+      </c>
+      <c r="G6">
+        <v>-0.009326697906822456</v>
+      </c>
+      <c r="H6">
+        <v>-0.03615434091717459</v>
+      </c>
+      <c r="I6">
+        <v>-0.02607416622932671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.008402445368642687</v>
+        <v>-0.007798039069064348</v>
       </c>
       <c r="C7">
-        <v>0.04837421453409688</v>
+        <v>0.06342678166944136</v>
       </c>
       <c r="D7">
-        <v>-0.05786840655215001</v>
+        <v>0.01417200550073048</v>
       </c>
       <c r="E7">
-        <v>-0.04785894098260816</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.06845795703933207</v>
+      </c>
+      <c r="F7">
+        <v>-0.02577354820213911</v>
+      </c>
+      <c r="G7">
+        <v>-0.03253930913194578</v>
+      </c>
+      <c r="H7">
+        <v>-0.08429323685934739</v>
+      </c>
+      <c r="I7">
+        <v>-0.001497433864976975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.01021852267801056</v>
+        <v>0.008261287115526195</v>
       </c>
       <c r="C8">
-        <v>0.0574526803474719</v>
+        <v>0.06415333184005161</v>
       </c>
       <c r="D8">
-        <v>-0.09181888231636651</v>
+        <v>-0.004604385183714036</v>
       </c>
       <c r="E8">
-        <v>-0.1020047526592781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.08721280674956518</v>
+      </c>
+      <c r="F8">
+        <v>-0.0245181150403119</v>
+      </c>
+      <c r="G8">
+        <v>0.07791206027016531</v>
+      </c>
+      <c r="H8">
+        <v>-0.02205374973288111</v>
+      </c>
+      <c r="I8">
+        <v>0.001523639337837433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.02134362930296621</v>
+        <v>-0.01198907887204883</v>
       </c>
       <c r="C9">
-        <v>0.1097002184670744</v>
+        <v>0.1186663780862236</v>
       </c>
       <c r="D9">
-        <v>-0.08896144767125634</v>
+        <v>0.009044672700127604</v>
       </c>
       <c r="E9">
-        <v>-0.05096904843457473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.07816471024650205</v>
+      </c>
+      <c r="F9">
+        <v>-0.01536328524416052</v>
+      </c>
+      <c r="G9">
+        <v>0.01763833158673982</v>
+      </c>
+      <c r="H9">
+        <v>-0.09773722708815516</v>
+      </c>
+      <c r="I9">
+        <v>0.001745445804358804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.2351511826282642</v>
+        <v>-0.2447424765615562</v>
       </c>
       <c r="C10">
-        <v>-0.09809168741733466</v>
+        <v>-0.08193461199451384</v>
       </c>
       <c r="D10">
-        <v>0.003119855895165096</v>
+        <v>-0.004786765930921003</v>
       </c>
       <c r="E10">
-        <v>0.08975748770737635</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01319663214329862</v>
+      </c>
+      <c r="F10">
+        <v>-0.008353698057180479</v>
+      </c>
+      <c r="G10">
+        <v>-0.006402478081212035</v>
+      </c>
+      <c r="H10">
+        <v>-0.02594915331839696</v>
+      </c>
+      <c r="I10">
+        <v>0.1882445398676272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.006502037604971581</v>
+        <v>-0.01178619329880743</v>
       </c>
       <c r="C11">
-        <v>0.0476286342958442</v>
+        <v>0.07073059635908693</v>
       </c>
       <c r="D11">
-        <v>-0.04381369172889978</v>
+        <v>-0.001200327414718339</v>
       </c>
       <c r="E11">
-        <v>-0.0349776646873044</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.05349745291028853</v>
+      </c>
+      <c r="F11">
+        <v>-0.01556773214393477</v>
+      </c>
+      <c r="G11">
+        <v>-0.02738646060375332</v>
+      </c>
+      <c r="H11">
+        <v>-0.04011620352578203</v>
+      </c>
+      <c r="I11">
+        <v>0.001286188895914622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01214709540910777</v>
+        <v>-0.0140737031891919</v>
       </c>
       <c r="C12">
-        <v>0.05283953306152041</v>
+        <v>0.06058701459354381</v>
       </c>
       <c r="D12">
-        <v>-0.03978402832353923</v>
+        <v>0.006053334355183289</v>
       </c>
       <c r="E12">
-        <v>-0.02548293526366759</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.03978824823478906</v>
+      </c>
+      <c r="F12">
+        <v>0.01358978049975642</v>
+      </c>
+      <c r="G12">
+        <v>-0.03230280420913859</v>
+      </c>
+      <c r="H12">
+        <v>-0.04278020267362523</v>
+      </c>
+      <c r="I12">
+        <v>0.01630136356437318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.00582813666550202</v>
+        <v>-0.002944636866830132</v>
       </c>
       <c r="C13">
-        <v>0.06266794659949121</v>
+        <v>0.09576068401340948</v>
       </c>
       <c r="D13">
-        <v>-0.128393063798295</v>
+        <v>0.04976765454957716</v>
       </c>
       <c r="E13">
-        <v>-0.1244881826294046</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.1595582445490214</v>
+      </c>
+      <c r="F13">
+        <v>0.09462403901133221</v>
+      </c>
+      <c r="G13">
+        <v>-0.03148912638800584</v>
+      </c>
+      <c r="H13">
+        <v>-0.09196125957354685</v>
+      </c>
+      <c r="I13">
+        <v>0.08984555524643577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.004838193602346948</v>
+        <v>-0.00739422154420946</v>
       </c>
       <c r="C14">
-        <v>0.03017670262953136</v>
+        <v>0.05739092446380261</v>
       </c>
       <c r="D14">
-        <v>-0.05354054661711396</v>
+        <v>-0.003566678893302382</v>
       </c>
       <c r="E14">
-        <v>-0.06337640704885862</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.1017284156075076</v>
+      </c>
+      <c r="F14">
+        <v>0.02582419935774603</v>
+      </c>
+      <c r="G14">
+        <v>-0.05011204243439831</v>
+      </c>
+      <c r="H14">
+        <v>-0.1563251595722592</v>
+      </c>
+      <c r="I14">
+        <v>-0.03799219880550952</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.004143516954152531</v>
+        <v>0.004022849241856564</v>
       </c>
       <c r="C15">
-        <v>0.03693903037321802</v>
+        <v>0.05623576118310631</v>
       </c>
       <c r="D15">
-        <v>-0.08119114792033595</v>
+        <v>0.01297830849660647</v>
       </c>
       <c r="E15">
-        <v>-0.07526893435846981</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.08043814905334427</v>
+      </c>
+      <c r="F15">
+        <v>-0.009767616043497091</v>
+      </c>
+      <c r="G15">
+        <v>-0.01418466880613208</v>
+      </c>
+      <c r="H15">
+        <v>-0.05457013937800294</v>
+      </c>
+      <c r="I15">
+        <v>-0.01265493934870099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.008755490700262363</v>
+        <v>-0.01147484644923812</v>
       </c>
       <c r="C16">
-        <v>0.04574103750642784</v>
+        <v>0.06136921035832334</v>
       </c>
       <c r="D16">
-        <v>-0.03295726385109354</v>
+        <v>0.004495245350024176</v>
       </c>
       <c r="E16">
-        <v>-0.02494801483357769</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.03600689768982407</v>
+      </c>
+      <c r="F16">
+        <v>-0.002124661022625813</v>
+      </c>
+      <c r="G16">
+        <v>-0.02763232013939534</v>
+      </c>
+      <c r="H16">
+        <v>-0.03893350338980437</v>
+      </c>
+      <c r="I16">
+        <v>0.006861136187845906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.001390915177036249</v>
+        <v>0.0004350179679303379</v>
       </c>
       <c r="C19">
-        <v>0.002254969318399988</v>
+        <v>0.002354407514902514</v>
       </c>
       <c r="D19">
-        <v>-0.02492641059413064</v>
+        <v>0.005474458730830223</v>
       </c>
       <c r="E19">
-        <v>-0.01488505225984273</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01665359458831344</v>
+      </c>
+      <c r="F19">
+        <v>0.001729531893657725</v>
+      </c>
+      <c r="G19">
+        <v>-0.005122372798337404</v>
+      </c>
+      <c r="H19">
+        <v>-0.01238083417881409</v>
+      </c>
+      <c r="I19">
+        <v>0.005872469989494147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.004001315252490712</v>
+        <v>-0.003508140036296313</v>
       </c>
       <c r="C20">
-        <v>0.04384924746849634</v>
+        <v>0.06853087313185063</v>
       </c>
       <c r="D20">
-        <v>-0.08421180608158478</v>
+        <v>0.02132517689012463</v>
       </c>
       <c r="E20">
-        <v>-0.04081109649238208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.07700121428444237</v>
+      </c>
+      <c r="F20">
+        <v>-0.02292156341384587</v>
+      </c>
+      <c r="G20">
+        <v>-0.05627725828068869</v>
+      </c>
+      <c r="H20">
+        <v>-0.06823835150352363</v>
+      </c>
+      <c r="I20">
+        <v>0.0008020906467286846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.005195473352892303</v>
+        <v>-0.006655220477631884</v>
       </c>
       <c r="C21">
-        <v>0.06173053329470121</v>
+        <v>0.06958904368855537</v>
       </c>
       <c r="D21">
-        <v>-0.1084998056315211</v>
+        <v>0.01969019237690497</v>
       </c>
       <c r="E21">
-        <v>-0.05147039265508743</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.09714646210947528</v>
+      </c>
+      <c r="F21">
+        <v>0.0796764573894463</v>
+      </c>
+      <c r="G21">
+        <v>0.02153607887820277</v>
+      </c>
+      <c r="H21">
+        <v>-0.1786625154169623</v>
+      </c>
+      <c r="I21">
+        <v>0.03801195161647516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.00655930808073758</v>
+        <v>0.01353208960519527</v>
       </c>
       <c r="C22">
-        <v>0.07865713633588829</v>
+        <v>0.1156861538788421</v>
       </c>
       <c r="D22">
-        <v>-0.2659665323362807</v>
+        <v>0.09763537971894144</v>
       </c>
       <c r="E22">
-        <v>-0.09363220737728047</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.2797896246267045</v>
+      </c>
+      <c r="F22">
+        <v>-0.1081054406081357</v>
+      </c>
+      <c r="G22">
+        <v>0.3338386279670422</v>
+      </c>
+      <c r="H22">
+        <v>0.4223429494849144</v>
+      </c>
+      <c r="I22">
+        <v>0.02466128771304401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.006828427199537649</v>
+        <v>0.01015152993832612</v>
       </c>
       <c r="C23">
-        <v>0.08019344561463969</v>
+        <v>0.1191638782754665</v>
       </c>
       <c r="D23">
-        <v>-0.2646642440739318</v>
+        <v>0.1003884246668066</v>
       </c>
       <c r="E23">
-        <v>-0.09277497474378064</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.2758114241775269</v>
+      </c>
+      <c r="F23">
+        <v>-0.1027406784177446</v>
+      </c>
+      <c r="G23">
+        <v>0.3242372039338655</v>
+      </c>
+      <c r="H23">
+        <v>0.3947748793920334</v>
+      </c>
+      <c r="I23">
+        <v>0.02665555650515488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.007400860159074247</v>
+        <v>-0.01293710920561049</v>
       </c>
       <c r="C24">
-        <v>0.0724930175605473</v>
+        <v>0.07812332411682389</v>
       </c>
       <c r="D24">
-        <v>-0.03726164828248502</v>
+        <v>-0.00611098299113432</v>
       </c>
       <c r="E24">
-        <v>-0.04003011031901053</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.04652423272931235</v>
+      </c>
+      <c r="F24">
+        <v>-0.008638580792138979</v>
+      </c>
+      <c r="G24">
+        <v>-0.02730981301664952</v>
+      </c>
+      <c r="H24">
+        <v>-0.05809080157599556</v>
+      </c>
+      <c r="I24">
+        <v>0.004618492882768843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.01277968454590118</v>
+        <v>-0.01779679753000344</v>
       </c>
       <c r="C25">
-        <v>0.06272209006043149</v>
+        <v>0.07191298616346287</v>
       </c>
       <c r="D25">
-        <v>-0.03620064521804132</v>
+        <v>0.0006220442370325017</v>
       </c>
       <c r="E25">
-        <v>-0.01712963223402959</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.0365230846012653</v>
+      </c>
+      <c r="F25">
+        <v>-0.01130433641912155</v>
+      </c>
+      <c r="G25">
+        <v>-0.02331412638515481</v>
+      </c>
+      <c r="H25">
+        <v>-0.03927795391000188</v>
+      </c>
+      <c r="I25">
+        <v>0.01856080489230301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.00346226936633887</v>
+        <v>-0.01699174129140994</v>
       </c>
       <c r="C26">
-        <v>0.03360782730340801</v>
+        <v>0.05382621726113426</v>
       </c>
       <c r="D26">
-        <v>-0.05823953602907508</v>
+        <v>-0.02259468831633422</v>
       </c>
       <c r="E26">
-        <v>-0.06354344183879104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.0838786831275342</v>
+      </c>
+      <c r="F26">
+        <v>-0.001825770883790263</v>
+      </c>
+      <c r="G26">
+        <v>-0.01639009930653643</v>
+      </c>
+      <c r="H26">
+        <v>-0.1323633046720054</v>
+      </c>
+      <c r="I26">
+        <v>0.02308944979522549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.3114248008485823</v>
+        <v>-0.3115305402198341</v>
       </c>
       <c r="C28">
-        <v>-0.11819750480549</v>
+        <v>-0.1042241046070609</v>
       </c>
       <c r="D28">
-        <v>0.002037859822006076</v>
+        <v>0.007278917388519683</v>
       </c>
       <c r="E28">
-        <v>0.073963110821487</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.01936719544496945</v>
+      </c>
+      <c r="F28">
+        <v>-0.03847940727406845</v>
+      </c>
+      <c r="G28">
+        <v>0.07663602276645176</v>
+      </c>
+      <c r="H28">
+        <v>-0.06268118410107729</v>
+      </c>
+      <c r="I28">
+        <v>0.1850093586096626</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.001657624182697239</v>
+        <v>-0.005230445929369299</v>
       </c>
       <c r="C29">
-        <v>0.03551869269556451</v>
+        <v>0.06358562544722017</v>
       </c>
       <c r="D29">
-        <v>-0.07041865810799224</v>
+        <v>0.007798731329839983</v>
       </c>
       <c r="E29">
-        <v>-0.07938313106825926</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.1171916582528661</v>
+      </c>
+      <c r="F29">
+        <v>0.03647282620582586</v>
+      </c>
+      <c r="G29">
+        <v>-0.07183951097533593</v>
+      </c>
+      <c r="H29">
+        <v>-0.1976214928658019</v>
+      </c>
+      <c r="I29">
+        <v>-0.06210804480210777</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02673457512358339</v>
+        <v>-0.02240545903654539</v>
       </c>
       <c r="C30">
-        <v>0.1214881261428567</v>
+        <v>0.1353888999347742</v>
       </c>
       <c r="D30">
-        <v>-0.1304242609308632</v>
+        <v>0.01333067091004182</v>
       </c>
       <c r="E30">
-        <v>-0.09228191649377802</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.1164380399317731</v>
+      </c>
+      <c r="F30">
+        <v>-0.02593536565020344</v>
+      </c>
+      <c r="G30">
+        <v>0.02100765534118875</v>
+      </c>
+      <c r="H30">
+        <v>-0.03121428190372507</v>
+      </c>
+      <c r="I30">
+        <v>-0.01789306879653993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.00403927750496605</v>
+        <v>-0.008241672929045884</v>
       </c>
       <c r="C31">
-        <v>0.09524018155354438</v>
+        <v>0.09956102211411196</v>
       </c>
       <c r="D31">
-        <v>0.001671522567631214</v>
+        <v>-0.01814166869308419</v>
       </c>
       <c r="E31">
-        <v>-0.02787672424108802</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01305392546982109</v>
+      </c>
+      <c r="F31">
+        <v>0.002052457354522446</v>
+      </c>
+      <c r="G31">
+        <v>0.01965301533075372</v>
+      </c>
+      <c r="H31">
+        <v>-0.05627260052531599</v>
+      </c>
+      <c r="I31">
+        <v>0.02496921780653415</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01662197452139754</v>
+        <v>-0.01825099015090135</v>
       </c>
       <c r="C32">
-        <v>0.05819834292663706</v>
+        <v>0.06285127365994111</v>
       </c>
       <c r="D32">
-        <v>-0.1427018223997136</v>
+        <v>0.02688279220953934</v>
       </c>
       <c r="E32">
-        <v>-0.05080333289260812</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.1083964440202596</v>
+      </c>
+      <c r="F32">
+        <v>0.03134285888605744</v>
+      </c>
+      <c r="G32">
+        <v>0.04270420009565895</v>
+      </c>
+      <c r="H32">
+        <v>-0.0927625913119009</v>
+      </c>
+      <c r="I32">
+        <v>0.2214884731264011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.001923703198088764</v>
+        <v>-0.008750091488078073</v>
       </c>
       <c r="C33">
-        <v>0.07501248961230472</v>
+        <v>0.09997852122559643</v>
       </c>
       <c r="D33">
-        <v>-0.06932991391027396</v>
+        <v>0.01343115102278418</v>
       </c>
       <c r="E33">
-        <v>-0.05629652949248642</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.08296659786279084</v>
+      </c>
+      <c r="F33">
+        <v>-0.002523828070882191</v>
+      </c>
+      <c r="G33">
+        <v>-0.02240360954315612</v>
+      </c>
+      <c r="H33">
+        <v>-0.06048669941272074</v>
+      </c>
+      <c r="I33">
+        <v>0.03295980711394175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.002759004398139428</v>
+        <v>-0.01149389834790932</v>
       </c>
       <c r="C34">
-        <v>0.05663106563160475</v>
+        <v>0.05810353802584675</v>
       </c>
       <c r="D34">
-        <v>-0.03528854585071708</v>
+        <v>-0.003459663585467356</v>
       </c>
       <c r="E34">
-        <v>-0.0259214306270844</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.034736571443803</v>
+      </c>
+      <c r="F34">
+        <v>0.006096145060897303</v>
+      </c>
+      <c r="G34">
+        <v>-0.03394683343939102</v>
+      </c>
+      <c r="H34">
+        <v>-0.01562397271680849</v>
+      </c>
+      <c r="I34">
+        <v>0.03450895758213152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.001009368662899497</v>
+        <v>-0.006112197571131297</v>
       </c>
       <c r="C35">
-        <v>0.003763646481589166</v>
+        <v>0.0284491414100674</v>
       </c>
       <c r="D35">
-        <v>-0.01095765856926007</v>
+        <v>0.004926953281233252</v>
       </c>
       <c r="E35">
-        <v>-0.003964414918355503</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.04472203063700411</v>
+      </c>
+      <c r="F35">
+        <v>0.004353342724514728</v>
+      </c>
+      <c r="G35">
+        <v>-0.03117055358129809</v>
+      </c>
+      <c r="H35">
+        <v>-0.112443136867655</v>
+      </c>
+      <c r="I35">
+        <v>-0.0106510421799497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.003897007782124452</v>
+        <v>-0.01000478076542137</v>
       </c>
       <c r="C36">
-        <v>0.03344387101816325</v>
+        <v>0.04480699620412404</v>
       </c>
       <c r="D36">
-        <v>-0.04836701670231823</v>
+        <v>-0.009953205159777269</v>
       </c>
       <c r="E36">
-        <v>-0.06539815373135056</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.07281538003274768</v>
+      </c>
+      <c r="F36">
+        <v>-0.001544105007897506</v>
+      </c>
+      <c r="G36">
+        <v>-0.01085912031268475</v>
+      </c>
+      <c r="H36">
+        <v>-0.07713013257901136</v>
+      </c>
+      <c r="I36">
+        <v>0.005247152148581189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.003435727906814884</v>
+        <v>-0.005133662480001644</v>
       </c>
       <c r="C38">
-        <v>0.02701629521716879</v>
+        <v>0.05148117559727164</v>
       </c>
       <c r="D38">
-        <v>-0.05208904494948809</v>
+        <v>0.006236454140623056</v>
       </c>
       <c r="E38">
-        <v>-0.05021604710630549</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.07598410247937462</v>
+      </c>
+      <c r="F38">
+        <v>-0.04743405635182155</v>
+      </c>
+      <c r="G38">
+        <v>-0.001689239046966463</v>
+      </c>
+      <c r="H38">
+        <v>-0.06302820306156913</v>
+      </c>
+      <c r="I38">
+        <v>0.04319173980394721</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.009595969589985778</v>
+        <v>-0.01062417457011365</v>
       </c>
       <c r="C39">
-        <v>0.09647934262764989</v>
+        <v>0.1172367132014978</v>
       </c>
       <c r="D39">
-        <v>-0.09304524066851441</v>
+        <v>-0.005484745149112422</v>
       </c>
       <c r="E39">
-        <v>-0.06988318070819513</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.08414671525628437</v>
+      </c>
+      <c r="F39">
+        <v>0.007420014902256797</v>
+      </c>
+      <c r="G39">
+        <v>-0.04048686522057051</v>
+      </c>
+      <c r="H39">
+        <v>-0.05425276420832171</v>
+      </c>
+      <c r="I39">
+        <v>-0.04834777452378772</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.00479002524871228</v>
+        <v>-0.01156866147549482</v>
       </c>
       <c r="C40">
-        <v>0.02711290259891856</v>
+        <v>0.0563898533339816</v>
       </c>
       <c r="D40">
-        <v>-0.08134508193764713</v>
+        <v>0.02302830153951535</v>
       </c>
       <c r="E40">
-        <v>-0.1060821361677474</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.1303959612223611</v>
+      </c>
+      <c r="F40">
+        <v>0.02126796933817638</v>
+      </c>
+      <c r="G40">
+        <v>-0.05863307334179314</v>
+      </c>
+      <c r="H40">
+        <v>0.001518514407125127</v>
+      </c>
+      <c r="I40">
+        <v>0.01744483736455271</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.005575535697191335</v>
+        <v>-0.01684185647485394</v>
       </c>
       <c r="C41">
-        <v>0.02938476613887161</v>
+        <v>0.04811372748535761</v>
       </c>
       <c r="D41">
-        <v>-0.00775497565538912</v>
+        <v>0.002236807009987854</v>
       </c>
       <c r="E41">
-        <v>0.002947797295229915</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01247746701294536</v>
+      </c>
+      <c r="F41">
+        <v>-0.005426639428532656</v>
+      </c>
+      <c r="G41">
+        <v>-0.0165886605603156</v>
+      </c>
+      <c r="H41">
+        <v>-0.03397158785132744</v>
+      </c>
+      <c r="I41">
+        <v>0.05232151231313497</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.00451665145035607</v>
+        <v>-0.009116464029785972</v>
       </c>
       <c r="C43">
-        <v>0.02504249724474237</v>
+        <v>0.04168957759609269</v>
       </c>
       <c r="D43">
-        <v>-0.02467900421202918</v>
+        <v>-0.004776865485722531</v>
       </c>
       <c r="E43">
-        <v>-0.01690589604799195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.0365662770889642</v>
+      </c>
+      <c r="F43">
+        <v>-0.01550150132730619</v>
+      </c>
+      <c r="G43">
+        <v>-0.02040037179793628</v>
+      </c>
+      <c r="H43">
+        <v>-0.05006620752540128</v>
+      </c>
+      <c r="I43">
+        <v>0.02858813818001647</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.0161817609365661</v>
+        <v>-0.006306904224636302</v>
       </c>
       <c r="C44">
-        <v>0.06515372482695646</v>
+        <v>0.08284596412372346</v>
       </c>
       <c r="D44">
-        <v>-0.09889084598507293</v>
+        <v>-0.003856688394503636</v>
       </c>
       <c r="E44">
-        <v>-0.06850929760764497</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.1080412302247374</v>
+      </c>
+      <c r="F44">
+        <v>-0.008646591456083525</v>
+      </c>
+      <c r="G44">
+        <v>0.01103754118042258</v>
+      </c>
+      <c r="H44">
+        <v>-0.03384214331208946</v>
+      </c>
+      <c r="I44">
+        <v>-0.03540760486985223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1999,196 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.001009868314060111</v>
+        <v>0.0004802986439409533</v>
       </c>
       <c r="C46">
-        <v>0.04315598064571512</v>
+        <v>0.05692455071352143</v>
       </c>
       <c r="D46">
-        <v>-0.06594856062609515</v>
+        <v>-0.003726755696207908</v>
       </c>
       <c r="E46">
-        <v>-0.08988028504421708</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.08512955515008291</v>
+      </c>
+      <c r="F46">
+        <v>-0.00247789098184215</v>
+      </c>
+      <c r="G46">
+        <v>-0.04411257760127182</v>
+      </c>
+      <c r="H46">
+        <v>-0.1224149847799872</v>
+      </c>
+      <c r="I46">
+        <v>-0.01648812196414693</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.03137022561680972</v>
+        <v>-0.02582692908305929</v>
       </c>
       <c r="C47">
-        <v>0.1252684606577463</v>
+        <v>0.1138023739267887</v>
       </c>
       <c r="D47">
-        <v>-0.006961745836090604</v>
+        <v>-0.01933507837777864</v>
       </c>
       <c r="E47">
-        <v>0.02203149567677525</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.0004490160336810225</v>
+      </c>
+      <c r="F47">
+        <v>-0.01259238781015294</v>
+      </c>
+      <c r="G47">
+        <v>0.001777776310456609</v>
+      </c>
+      <c r="H47">
+        <v>-0.08212373730244385</v>
+      </c>
+      <c r="I47">
+        <v>0.04168140101728794</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.009977291022864043</v>
+        <v>-0.01578585844283243</v>
       </c>
       <c r="C48">
-        <v>0.03646500926844465</v>
+        <v>0.05092543777383755</v>
       </c>
       <c r="D48">
-        <v>-0.0442899518744796</v>
+        <v>-0.02020258016095867</v>
       </c>
       <c r="E48">
-        <v>-0.0880199375005358</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.08049502950288898</v>
+      </c>
+      <c r="F48">
+        <v>-0.009296297727666445</v>
+      </c>
+      <c r="G48">
+        <v>-0.01069568327429353</v>
+      </c>
+      <c r="H48">
+        <v>-0.1307650602119597</v>
+      </c>
+      <c r="I48">
+        <v>0.004399492505728929</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.00398098250747122</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.007690444476175754</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.00901218019698774</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.0009050031186426811</v>
+      </c>
+      <c r="F49">
+        <v>0.005980759343972237</v>
+      </c>
+      <c r="G49">
+        <v>-0.02034884584061653</v>
+      </c>
+      <c r="H49">
+        <v>0.005155724561015184</v>
+      </c>
+      <c r="I49">
+        <v>-0.001309457735714694</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.009281130057179756</v>
+        <v>-0.0113068232879655</v>
       </c>
       <c r="C50">
-        <v>0.06187131459708382</v>
+        <v>0.07563893874483235</v>
       </c>
       <c r="D50">
-        <v>-0.02426899715997263</v>
+        <v>0.003013106258937553</v>
       </c>
       <c r="E50">
-        <v>-0.02507812430126692</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.02667162906401394</v>
+      </c>
+      <c r="F50">
+        <v>-0.01234165816467646</v>
+      </c>
+      <c r="G50">
+        <v>0.01197814844084029</v>
+      </c>
+      <c r="H50">
+        <v>-0.05718905387196971</v>
+      </c>
+      <c r="I50">
+        <v>0.05174824654085902</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.001201916042110913</v>
+        <v>0.005599031388330158</v>
       </c>
       <c r="C51">
-        <v>0.02246050276522381</v>
+        <v>0.03035329718357914</v>
       </c>
       <c r="D51">
-        <v>-0.08330339143541969</v>
+        <v>0.006131616236062689</v>
       </c>
       <c r="E51">
-        <v>-0.06415004874194642</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.06986541045711311</v>
+      </c>
+      <c r="F51">
+        <v>0.005161754274508179</v>
+      </c>
+      <c r="G51">
+        <v>0.01219321335283226</v>
+      </c>
+      <c r="H51">
+        <v>-0.1108181296374483</v>
+      </c>
+      <c r="I51">
+        <v>-0.03086187751223923</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.06823981386159615</v>
+        <v>-0.05821494764654091</v>
       </c>
       <c r="C53">
-        <v>0.1596134700825903</v>
+        <v>0.1567943274184558</v>
       </c>
       <c r="D53">
-        <v>0.04111800249841274</v>
+        <v>-0.04469766922128935</v>
       </c>
       <c r="E53">
-        <v>0.01770302774978626</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.07145234543522611</v>
+      </c>
+      <c r="F53">
+        <v>-0.00806375822589998</v>
+      </c>
+      <c r="G53">
+        <v>0.01904471477539683</v>
+      </c>
+      <c r="H53">
+        <v>-0.01710703785792876</v>
+      </c>
+      <c r="I53">
+        <v>0.0229026261585251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.008227642613637618</v>
+        <v>-0.01464855100561815</v>
       </c>
       <c r="C54">
-        <v>0.04191612027474807</v>
+        <v>0.05959464456058097</v>
       </c>
       <c r="D54">
-        <v>-0.07044296242959966</v>
+        <v>0.02677991479253665</v>
       </c>
       <c r="E54">
-        <v>-0.01799089649101685</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.05321760842547438</v>
+      </c>
+      <c r="F54">
+        <v>-0.01142460058794547</v>
+      </c>
+      <c r="G54">
+        <v>-0.005344420774624653</v>
+      </c>
+      <c r="H54">
+        <v>-0.09351451109604181</v>
+      </c>
+      <c r="I54">
+        <v>-0.03218042439396435</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.04800491554861758</v>
+        <v>-0.03549630270646753</v>
       </c>
       <c r="C55">
-        <v>0.1211330590581212</v>
+        <v>0.1125470809589687</v>
       </c>
       <c r="D55">
-        <v>0.04629442635148692</v>
+        <v>-0.05225486207352536</v>
       </c>
       <c r="E55">
-        <v>0.003881393709856266</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.05691128071004904</v>
+      </c>
+      <c r="F55">
+        <v>0.003632545540959365</v>
+      </c>
+      <c r="G55">
+        <v>0.01451949235289988</v>
+      </c>
+      <c r="H55">
+        <v>-0.02321517787253403</v>
+      </c>
+      <c r="I55">
+        <v>-0.01259367665249465</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.07262269466174009</v>
+        <v>-0.05332620817770178</v>
       </c>
       <c r="C56">
-        <v>0.1903192791780116</v>
+        <v>0.1854388946373157</v>
       </c>
       <c r="D56">
-        <v>0.0490289771227921</v>
+        <v>-0.06146334207965602</v>
       </c>
       <c r="E56">
-        <v>0.04042429662411789</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.0938874365123388</v>
+      </c>
+      <c r="F56">
+        <v>0.001328867823729817</v>
+      </c>
+      <c r="G56">
+        <v>0.049975862865299</v>
+      </c>
+      <c r="H56">
+        <v>-0.001397592395710543</v>
+      </c>
+      <c r="I56">
+        <v>0.03153093274203145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2347,370 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01269806711856724</v>
+        <v>-0.008644708912870669</v>
       </c>
       <c r="C58">
-        <v>0.1008879394888603</v>
+        <v>0.1358631911259159</v>
       </c>
       <c r="D58">
-        <v>-0.2727430579379331</v>
+        <v>0.0818614683333654</v>
       </c>
       <c r="E58">
-        <v>-0.07925401036504842</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.2355646960794051</v>
+      </c>
+      <c r="F58">
+        <v>-0.06082604316698153</v>
+      </c>
+      <c r="G58">
+        <v>0.2557257688181501</v>
+      </c>
+      <c r="H58">
+        <v>0.02240243708916842</v>
+      </c>
+      <c r="I58">
+        <v>-0.02519599744970863</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.2458365810865154</v>
+        <v>-0.2705312971881019</v>
       </c>
       <c r="C59">
-        <v>-0.05866444524469552</v>
+        <v>-0.0471187464389311</v>
       </c>
       <c r="D59">
-        <v>-0.07493976561176742</v>
+        <v>0.01516590366694207</v>
       </c>
       <c r="E59">
-        <v>0.002163423998438058</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.04499200261271641</v>
+      </c>
+      <c r="F59">
+        <v>0.01875360289769088</v>
+      </c>
+      <c r="G59">
+        <v>0.01805674085272005</v>
+      </c>
+      <c r="H59">
+        <v>0.02418850574291141</v>
+      </c>
+      <c r="I59">
+        <v>0.09496203115813598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1352915539105422</v>
+        <v>-0.150141121814781</v>
       </c>
       <c r="C60">
-        <v>0.141318840378409</v>
+        <v>0.1586941595411556</v>
       </c>
       <c r="D60">
-        <v>-0.02114507673774159</v>
+        <v>-0.004664105674403641</v>
       </c>
       <c r="E60">
-        <v>-0.0415188979814349</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.03049113573888783</v>
+      </c>
+      <c r="F60">
+        <v>0.09656935387336593</v>
+      </c>
+      <c r="G60">
+        <v>-0.2931878654365503</v>
+      </c>
+      <c r="H60">
+        <v>0.2882999803422465</v>
+      </c>
+      <c r="I60">
+        <v>-0.05520978126906356</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.01319410930578206</v>
+        <v>-0.01655726964755892</v>
       </c>
       <c r="C61">
-        <v>0.07676610599625569</v>
+        <v>0.0982104205294346</v>
       </c>
       <c r="D61">
-        <v>-0.05133061635836887</v>
+        <v>-0.008622217673137946</v>
       </c>
       <c r="E61">
-        <v>-0.05438293937804747</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.06115398363976929</v>
+      </c>
+      <c r="F61">
+        <v>-0.004490021050917493</v>
+      </c>
+      <c r="G61">
+        <v>-0.04821540879982066</v>
+      </c>
+      <c r="H61">
+        <v>-0.05915220034560872</v>
+      </c>
+      <c r="I61">
+        <v>-0.01499190850516611</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0006920225779741429</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0007675960268417372</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.0001154272690003531</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.0009606196725279545</v>
+      </c>
+      <c r="F62">
+        <v>-0.000984854287597164</v>
+      </c>
+      <c r="G62">
+        <v>0.002517369651362597</v>
+      </c>
+      <c r="H62">
+        <v>-0.005241094457973448</v>
+      </c>
+      <c r="I62">
+        <v>0.002209135020904363</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.002071439963038725</v>
+        <v>-0.01710686639605619</v>
       </c>
       <c r="C63">
-        <v>0.05442396627127893</v>
+        <v>0.06907101888461425</v>
       </c>
       <c r="D63">
-        <v>-0.05196640015149916</v>
+        <v>-0.01550208452148945</v>
       </c>
       <c r="E63">
-        <v>-0.03767888945408176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.06555470877880996</v>
+      </c>
+      <c r="F63">
+        <v>0.001281030144383131</v>
+      </c>
+      <c r="G63">
+        <v>-0.030112368901753</v>
+      </c>
+      <c r="H63">
+        <v>-0.08278496891945217</v>
+      </c>
+      <c r="I63">
+        <v>0.02015740736838789</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.02356392412796688</v>
+        <v>-0.01694155337646367</v>
       </c>
       <c r="C64">
-        <v>0.1240037714851342</v>
+        <v>0.1120506901968771</v>
       </c>
       <c r="D64">
-        <v>0.009207169182363634</v>
+        <v>-0.01907669071583321</v>
       </c>
       <c r="E64">
-        <v>-0.05407725955458236</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.01525540601184657</v>
+      </c>
+      <c r="F64">
+        <v>-0.0237268299045189</v>
+      </c>
+      <c r="G64">
+        <v>-0.01735848005746196</v>
+      </c>
+      <c r="H64">
+        <v>-0.001795179666728625</v>
+      </c>
+      <c r="I64">
+        <v>-0.01673319594690253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.01638106186798667</v>
+        <v>-0.02369920504675322</v>
       </c>
       <c r="C65">
-        <v>0.04964332386869025</v>
+        <v>0.07335723629827202</v>
       </c>
       <c r="D65">
-        <v>-0.08018923305326134</v>
+        <v>0.03250261331458927</v>
       </c>
       <c r="E65">
-        <v>-0.05809593550880532</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.1021315427892078</v>
+      </c>
+      <c r="F65">
+        <v>-0.01117029819885906</v>
+      </c>
+      <c r="G65">
+        <v>-0.07248183946790564</v>
+      </c>
+      <c r="H65">
+        <v>0.008171961385025009</v>
+      </c>
+      <c r="I65">
+        <v>-0.03915451330355461</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.009093081635761504</v>
+        <v>-0.01000167026587801</v>
       </c>
       <c r="C66">
-        <v>0.1157127459639058</v>
+        <v>0.1422829888675032</v>
       </c>
       <c r="D66">
-        <v>-0.1287143759765404</v>
+        <v>0.02315663782728343</v>
       </c>
       <c r="E66">
-        <v>-0.07625915514009059</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.1030023945155257</v>
+      </c>
+      <c r="F66">
+        <v>-0.001618889981132523</v>
+      </c>
+      <c r="G66">
+        <v>-0.02131861686153038</v>
+      </c>
+      <c r="H66">
+        <v>-0.04820313389315193</v>
+      </c>
+      <c r="I66">
+        <v>-0.03194929279669725</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.01489737010586879</v>
+        <v>-0.01625591534546423</v>
       </c>
       <c r="C67">
-        <v>0.02958476267926724</v>
+        <v>0.04988781205004148</v>
       </c>
       <c r="D67">
-        <v>-0.003259955847802196</v>
+        <v>-0.01443205410433482</v>
       </c>
       <c r="E67">
-        <v>-0.04131073528642593</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.0455958907662046</v>
+      </c>
+      <c r="F67">
+        <v>-0.03920380235907725</v>
+      </c>
+      <c r="G67">
+        <v>-0.03737062655049694</v>
+      </c>
+      <c r="H67">
+        <v>-0.04216912746799206</v>
+      </c>
+      <c r="I67">
+        <v>0.02772720423157079</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2444936663447016</v>
+        <v>-0.2808866741700502</v>
       </c>
       <c r="C68">
-        <v>-0.06998607097626627</v>
+        <v>-0.05576470311876408</v>
       </c>
       <c r="D68">
-        <v>-0.05562096256396754</v>
+        <v>0.03902071545563504</v>
       </c>
       <c r="E68">
-        <v>0.008479283779058967</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.03994381503605345</v>
+      </c>
+      <c r="F68">
+        <v>-0.00805911652319119</v>
+      </c>
+      <c r="G68">
+        <v>0.05121787258888748</v>
+      </c>
+      <c r="H68">
+        <v>0.0269843656140692</v>
+      </c>
+      <c r="I68">
+        <v>0.1066438540784761</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.03308302987919544</v>
+        <v>-0.01566339599253407</v>
       </c>
       <c r="C69">
-        <v>0.1331111179110189</v>
+        <v>0.102851453140207</v>
       </c>
       <c r="D69">
-        <v>0.006580952999648873</v>
+        <v>-0.03641086292870889</v>
       </c>
       <c r="E69">
-        <v>-0.02698155574370084</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.008023652668429745</v>
+      </c>
+      <c r="F69">
+        <v>-0.01161091525243575</v>
+      </c>
+      <c r="G69">
+        <v>0.0001917471914587655</v>
+      </c>
+      <c r="H69">
+        <v>-0.04548389740365131</v>
+      </c>
+      <c r="I69">
+        <v>0.04965000534029335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2592470764932292</v>
+        <v>-0.2690550314701605</v>
       </c>
       <c r="C71">
-        <v>-0.08995764924637394</v>
+        <v>-0.074377383600507</v>
       </c>
       <c r="D71">
-        <v>-0.04917652156622301</v>
+        <v>0.0194898667279673</v>
       </c>
       <c r="E71">
-        <v>0.03494765712785768</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03644909914584574</v>
+      </c>
+      <c r="F71">
+        <v>-0.03000490054334222</v>
+      </c>
+      <c r="G71">
+        <v>0.01062909517984889</v>
+      </c>
+      <c r="H71">
+        <v>-0.05966825075143868</v>
+      </c>
+      <c r="I71">
+        <v>0.1285203539446882</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.06890734205652191</v>
+        <v>-0.06137010140838985</v>
       </c>
       <c r="C72">
-        <v>0.1499508584356544</v>
+        <v>0.1478751509551288</v>
       </c>
       <c r="D72">
-        <v>-0.04080948585318305</v>
+        <v>-0.01389306668404204</v>
       </c>
       <c r="E72">
-        <v>-0.1116810582384573</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.02637699961230671</v>
+      </c>
+      <c r="F72">
+        <v>0.009195604215435343</v>
+      </c>
+      <c r="G72">
+        <v>-0.03785619338182618</v>
+      </c>
+      <c r="H72">
+        <v>0.03897821750040839</v>
+      </c>
+      <c r="I72">
+        <v>-0.09925032340129439</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1191117445228734</v>
+        <v>-0.1491458783482092</v>
       </c>
       <c r="C73">
-        <v>0.1505295077841043</v>
+        <v>0.1905166368131703</v>
       </c>
       <c r="D73">
-        <v>-0.01528753597330179</v>
+        <v>-0.02289150923944084</v>
       </c>
       <c r="E73">
-        <v>-0.07450678693471369</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.05539959884107309</v>
+      </c>
+      <c r="F73">
+        <v>0.1083469715147812</v>
+      </c>
+      <c r="G73">
+        <v>-0.438540337420021</v>
+      </c>
+      <c r="H73">
+        <v>0.257228014287843</v>
+      </c>
+      <c r="I73">
+        <v>-0.02225405636196779</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.0509721825433973</v>
+        <v>-0.04275321651896889</v>
       </c>
       <c r="C74">
-        <v>0.1164416176908386</v>
+        <v>0.1164453058865752</v>
       </c>
       <c r="D74">
-        <v>0.06968955797353862</v>
+        <v>-0.05154941218303726</v>
       </c>
       <c r="E74">
-        <v>0.008587171300370105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.05953089534766483</v>
+      </c>
+      <c r="F74">
+        <v>-0.01549758790660026</v>
+      </c>
+      <c r="G74">
+        <v>0.0114838086552569</v>
+      </c>
+      <c r="H74">
+        <v>-0.0214865961698908</v>
+      </c>
+      <c r="I74">
+        <v>-0.01214240271386091</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.1256984319798974</v>
+        <v>-0.07967874685822994</v>
       </c>
       <c r="C75">
-        <v>0.254409503764346</v>
+        <v>0.2315900156396392</v>
       </c>
       <c r="D75">
-        <v>0.1637200739659225</v>
+        <v>-0.106619215532268</v>
       </c>
       <c r="E75">
-        <v>0.06879017921157124</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.2028734778817075</v>
+      </c>
+      <c r="F75">
+        <v>-0.08272255976129338</v>
+      </c>
+      <c r="G75">
+        <v>0.05813670066526414</v>
+      </c>
+      <c r="H75">
+        <v>0.01733272056729331</v>
+      </c>
+      <c r="I75">
+        <v>0.078838338433106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.06382107384258554</v>
+        <v>-0.04698183681019276</v>
       </c>
       <c r="C76">
-        <v>0.1667766364492049</v>
+        <v>0.1633237565661924</v>
       </c>
       <c r="D76">
-        <v>0.07240606917657869</v>
+        <v>-0.07060727424496305</v>
       </c>
       <c r="E76">
-        <v>0.0162533538479876</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.0819002145268231</v>
+      </c>
+      <c r="F76">
+        <v>-0.001266333124000049</v>
+      </c>
+      <c r="G76">
+        <v>-0.01365836912025834</v>
+      </c>
+      <c r="H76">
+        <v>-0.02394588537568437</v>
+      </c>
+      <c r="I76">
+        <v>0.01884234344214131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02947674649536653</v>
+        <v>-0.02614304407403256</v>
       </c>
       <c r="C77">
-        <v>0.1215528502496555</v>
+        <v>0.172915575326452</v>
       </c>
       <c r="D77">
-        <v>-0.4554031976439825</v>
+        <v>0.9235320956913101</v>
       </c>
       <c r="E77">
-        <v>0.8064636880003184</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.3099515270641934</v>
+      </c>
+      <c r="F77">
+        <v>-0.02519558117521727</v>
+      </c>
+      <c r="G77">
+        <v>-0.04408221761877432</v>
+      </c>
+      <c r="H77">
+        <v>-0.05339748595347295</v>
+      </c>
+      <c r="I77">
+        <v>-0.02678596350107404</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02412155972706473</v>
+        <v>-0.02574766418802026</v>
       </c>
       <c r="C78">
-        <v>0.106675656021758</v>
+        <v>0.1109042951756998</v>
       </c>
       <c r="D78">
-        <v>-0.130647524980086</v>
+        <v>-0.02549403362081334</v>
       </c>
       <c r="E78">
-        <v>-0.06916379276716071</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.09138675306960116</v>
+      </c>
+      <c r="F78">
+        <v>0.02117871587126462</v>
+      </c>
+      <c r="G78">
+        <v>0.06753624052392029</v>
+      </c>
+      <c r="H78">
+        <v>-0.1239327920473</v>
+      </c>
+      <c r="I78">
+        <v>-0.08372301444578542</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.103593574905354</v>
+        <v>-0.07064369728698465</v>
       </c>
       <c r="C79">
-        <v>0.2724137040118293</v>
+        <v>0.2200895641764443</v>
       </c>
       <c r="D79">
-        <v>0.2687778855154582</v>
+        <v>-0.1202819725093665</v>
       </c>
       <c r="E79">
-        <v>0.1110355622939682</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.2632872672883053</v>
+      </c>
+      <c r="F79">
+        <v>-0.01708174674686683</v>
+      </c>
+      <c r="G79">
+        <v>0.2060018788402979</v>
+      </c>
+      <c r="H79">
+        <v>-0.04969873127224417</v>
+      </c>
+      <c r="I79">
+        <v>-0.04083846939432414</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.007510446696564093</v>
+        <v>-0.007733060236626947</v>
       </c>
       <c r="C80">
-        <v>0.0600327841479773</v>
+        <v>0.05866958902520997</v>
       </c>
       <c r="D80">
-        <v>-0.01690335953206335</v>
+        <v>-0.02293438413908371</v>
       </c>
       <c r="E80">
-        <v>-0.05311708586451487</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.06172503749056681</v>
+      </c>
+      <c r="F80">
+        <v>0.06827525182180348</v>
+      </c>
+      <c r="G80">
+        <v>-0.04506077007224156</v>
+      </c>
+      <c r="H80">
+        <v>0.03186224603819187</v>
+      </c>
+      <c r="I80">
+        <v>0.04490489278829787</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.05408812080193277</v>
+        <v>-0.02841306189740829</v>
       </c>
       <c r="C81">
-        <v>0.1453878715352022</v>
+        <v>0.1365032095385661</v>
       </c>
       <c r="D81">
-        <v>0.08919413772459744</v>
+        <v>-0.05045706041693267</v>
       </c>
       <c r="E81">
-        <v>0.04543981839272176</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.08438823584927076</v>
+      </c>
+      <c r="F81">
+        <v>-0.01777803644727684</v>
+      </c>
+      <c r="G81">
+        <v>0.04309177515563958</v>
+      </c>
+      <c r="H81">
+        <v>-0.06259108565688751</v>
+      </c>
+      <c r="I81">
+        <v>0.08006036831842506</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.1011360758632586</v>
+        <v>-0.06323196977733464</v>
       </c>
       <c r="C82">
-        <v>0.2294808609721728</v>
+        <v>0.18881619832564</v>
       </c>
       <c r="D82">
-        <v>0.1226126546970573</v>
+        <v>-0.09205624871459882</v>
       </c>
       <c r="E82">
-        <v>0.03359245946689587</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.1346680837585609</v>
+      </c>
+      <c r="F82">
+        <v>0.001278334556351592</v>
+      </c>
+      <c r="G82">
+        <v>0.0243924018905254</v>
+      </c>
+      <c r="H82">
+        <v>-0.04152325245665357</v>
+      </c>
+      <c r="I82">
+        <v>0.06651345574913713</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.003897049384298836</v>
+        <v>-0.001198410294150052</v>
       </c>
       <c r="C83">
-        <v>0.06329413939824181</v>
+        <v>0.02204492822791007</v>
       </c>
       <c r="D83">
-        <v>-0.05256797203477453</v>
+        <v>0.03988126281026918</v>
       </c>
       <c r="E83">
-        <v>-0.004922631075116096</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.001352740374737787</v>
+      </c>
+      <c r="F83">
+        <v>0.9331842732026172</v>
+      </c>
+      <c r="G83">
+        <v>0.2187305551648384</v>
+      </c>
+      <c r="H83">
+        <v>0.02895766022193103</v>
+      </c>
+      <c r="I83">
+        <v>0.1161182018792246</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.002705848745417253</v>
+        <v>0.003465867839471729</v>
       </c>
       <c r="C84">
-        <v>0.01980512003542207</v>
+        <v>0.03485479838033197</v>
       </c>
       <c r="D84">
-        <v>-0.03895240978947925</v>
+        <v>-0.005926329132189471</v>
       </c>
       <c r="E84">
-        <v>-0.06098304941554977</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.06213051905612112</v>
+      </c>
+      <c r="F84">
+        <v>-0.04768260771995667</v>
+      </c>
+      <c r="G84">
+        <v>0.06705030676178679</v>
+      </c>
+      <c r="H84">
+        <v>-0.065317806227897</v>
+      </c>
+      <c r="I84">
+        <v>-0.0422752336441505</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.06355434593477113</v>
+        <v>-0.04160290058271693</v>
       </c>
       <c r="C85">
-        <v>0.1841697689830692</v>
+        <v>0.1631099433940501</v>
       </c>
       <c r="D85">
-        <v>0.1215357587693603</v>
+        <v>-0.0983309438476991</v>
       </c>
       <c r="E85">
-        <v>0.03391376741938141</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1368223128348454</v>
+      </c>
+      <c r="F85">
+        <v>-0.008142893867548066</v>
+      </c>
+      <c r="G85">
+        <v>0.04773875069755337</v>
+      </c>
+      <c r="H85">
+        <v>-0.01801195225011742</v>
+      </c>
+      <c r="I85">
+        <v>0.04783423894315827</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01839595130927104</v>
+        <v>-0.01358425975919859</v>
       </c>
       <c r="C86">
-        <v>0.03810574700915065</v>
+        <v>0.06490967349704331</v>
       </c>
       <c r="D86">
-        <v>-0.1026841204323241</v>
+        <v>0.03349643871224278</v>
       </c>
       <c r="E86">
-        <v>0.04082761354639255</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.0616856867617806</v>
+      </c>
+      <c r="F86">
+        <v>-0.04104718039206534</v>
+      </c>
+      <c r="G86">
+        <v>0.0760035344866465</v>
+      </c>
+      <c r="H86">
+        <v>-0.06818881060835658</v>
+      </c>
+      <c r="I86">
+        <v>0.0790725810831486</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02397070193296165</v>
+        <v>-0.01684294719776196</v>
       </c>
       <c r="C87">
-        <v>0.08661882860708445</v>
+        <v>0.1045902573720476</v>
       </c>
       <c r="D87">
-        <v>-0.1631309132599813</v>
+        <v>0.04568335799289631</v>
       </c>
       <c r="E87">
-        <v>-0.08412434333473177</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.1256472051186106</v>
+      </c>
+      <c r="F87">
+        <v>-0.01357284570520494</v>
+      </c>
+      <c r="G87">
+        <v>0.05407392179661868</v>
+      </c>
+      <c r="H87">
+        <v>-0.03545953382233748</v>
+      </c>
+      <c r="I87">
+        <v>-0.1277945468131965</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.02869960370057309</v>
+        <v>-0.0348247447778406</v>
       </c>
       <c r="C88">
-        <v>0.07678763241211686</v>
+        <v>0.08390102863065275</v>
       </c>
       <c r="D88">
-        <v>0.03196230465420648</v>
+        <v>-0.01569923898118169</v>
       </c>
       <c r="E88">
-        <v>-0.01394602210141876</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.001002018346693753</v>
+      </c>
+      <c r="F88">
+        <v>-0.006075175907489985</v>
+      </c>
+      <c r="G88">
+        <v>-0.02916879878082353</v>
+      </c>
+      <c r="H88">
+        <v>-0.0133674615333361</v>
+      </c>
+      <c r="I88">
+        <v>0.02736367044072034</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.4385478390462818</v>
+        <v>-0.4101592359545062</v>
       </c>
       <c r="C89">
-        <v>-0.1696146094396528</v>
+        <v>-0.1374330987741837</v>
       </c>
       <c r="D89">
-        <v>0.02631180007045623</v>
+        <v>0.002565203591487175</v>
       </c>
       <c r="E89">
-        <v>-0.2404015655394071</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02523390517142683</v>
+      </c>
+      <c r="F89">
+        <v>0.07868491098572761</v>
+      </c>
+      <c r="G89">
+        <v>0.1346666430679186</v>
+      </c>
+      <c r="H89">
+        <v>-0.08466311437586707</v>
+      </c>
+      <c r="I89">
+        <v>-0.7849486025018068</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.3156529886058341</v>
+        <v>-0.3217895271532427</v>
       </c>
       <c r="C90">
-        <v>-0.1103862495026542</v>
+        <v>-0.08320285672863863</v>
       </c>
       <c r="D90">
-        <v>-0.09552086282400492</v>
+        <v>0.02551382681249052</v>
       </c>
       <c r="E90">
-        <v>-0.0007705751778324853</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.04967348431007098</v>
+      </c>
+      <c r="F90">
+        <v>-0.01005131934058451</v>
+      </c>
+      <c r="G90">
+        <v>0.01718574576825427</v>
+      </c>
+      <c r="H90">
+        <v>0.02184656608833408</v>
+      </c>
+      <c r="I90">
+        <v>0.1628536945667357</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.0783381175559765</v>
+        <v>-0.06078225118314647</v>
       </c>
       <c r="C91">
-        <v>0.1909548082644591</v>
+        <v>0.1585925222024021</v>
       </c>
       <c r="D91">
-        <v>0.102298217722044</v>
+        <v>-0.05327312282376477</v>
       </c>
       <c r="E91">
-        <v>0.06005828490688029</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.1297375999874474</v>
+      </c>
+      <c r="F91">
+        <v>0.02381560577460268</v>
+      </c>
+      <c r="G91">
+        <v>0.04351327918198755</v>
+      </c>
+      <c r="H91">
+        <v>-0.01174715948146395</v>
+      </c>
+      <c r="I91">
+        <v>0.04161534651724236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.3306388583600262</v>
+        <v>-0.3452555596959817</v>
       </c>
       <c r="C92">
-        <v>-0.1539588391005053</v>
+        <v>-0.129920285918398</v>
       </c>
       <c r="D92">
-        <v>-0.06231132973708077</v>
+        <v>0.04957611177620946</v>
       </c>
       <c r="E92">
-        <v>0.05721840878967101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.0395362070843358</v>
+      </c>
+      <c r="F92">
+        <v>-0.09459281599835717</v>
+      </c>
+      <c r="G92">
+        <v>0.02474017710681888</v>
+      </c>
+      <c r="H92">
+        <v>-0.02426303783740382</v>
+      </c>
+      <c r="I92">
+        <v>0.1696902930755755</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.3283657035826334</v>
+        <v>-0.3245671178093923</v>
       </c>
       <c r="C93">
-        <v>-0.1399061441818656</v>
+        <v>-0.1202666499552436</v>
       </c>
       <c r="D93">
-        <v>0.006622364407960172</v>
+        <v>-0.005379104819129842</v>
       </c>
       <c r="E93">
-        <v>0.0181654621857569</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.006198959155750927</v>
+      </c>
+      <c r="F93">
+        <v>-0.01938166632600035</v>
+      </c>
+      <c r="G93">
+        <v>0.02910399816272632</v>
+      </c>
+      <c r="H93">
+        <v>-0.0359745302390892</v>
+      </c>
+      <c r="I93">
+        <v>0.1098455661753214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.1455442582108621</v>
+        <v>-0.1028745169944449</v>
       </c>
       <c r="C94">
-        <v>0.3040393352415094</v>
+        <v>0.2620523726654687</v>
       </c>
       <c r="D94">
-        <v>0.2632275896693082</v>
+        <v>-0.1621592077159054</v>
       </c>
       <c r="E94">
-        <v>0.080919227848258</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.3633607602482701</v>
+      </c>
+      <c r="F94">
+        <v>-0.03076297771993056</v>
+      </c>
+      <c r="G94">
+        <v>0.2165186261207929</v>
+      </c>
+      <c r="H94">
+        <v>0.1313635071849966</v>
+      </c>
+      <c r="I94">
+        <v>-0.1184065135188179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.03321713259372518</v>
+        <v>-0.03584216486697841</v>
       </c>
       <c r="C95">
-        <v>0.06209239169445251</v>
+        <v>0.1061052124875653</v>
       </c>
       <c r="D95">
-        <v>-0.01347006669251755</v>
+        <v>0.01757475499759778</v>
       </c>
       <c r="E95">
-        <v>-0.02586830012652938</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.04299821542210126</v>
+      </c>
+      <c r="F95">
+        <v>-0.03271923018860685</v>
+      </c>
+      <c r="G95">
+        <v>-0.1214376314106215</v>
+      </c>
+      <c r="H95">
+        <v>-0.06659727860797698</v>
+      </c>
+      <c r="I95">
+        <v>-0.007117823016370397</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.003855041696025573</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001969432788326579</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.01534650915970336</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.004947581975427718</v>
+      </c>
+      <c r="F97">
+        <v>-0.02001563360720759</v>
+      </c>
+      <c r="G97">
+        <v>-0.005195715603721704</v>
+      </c>
+      <c r="H97">
+        <v>-0.003782125295944544</v>
+      </c>
+      <c r="I97">
+        <v>0.02112107317861363</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.09485971000666654</v>
+        <v>-0.1285346227573141</v>
       </c>
       <c r="C98">
-        <v>0.1209486307900265</v>
+        <v>0.1542881227333787</v>
       </c>
       <c r="D98">
-        <v>-0.0685312517116046</v>
+        <v>-0.02543443888707616</v>
       </c>
       <c r="E98">
-        <v>-0.07191710589123103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.08349538381871024</v>
+      </c>
+      <c r="F98">
+        <v>0.06931714612627893</v>
+      </c>
+      <c r="G98">
+        <v>-0.383360475181939</v>
+      </c>
+      <c r="H98">
+        <v>0.3113301596587795</v>
+      </c>
+      <c r="I98">
+        <v>-0.06971187181919869</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.002910632228961061</v>
+        <v>-0.005374069471068601</v>
       </c>
       <c r="C101">
-        <v>0.03474114292078111</v>
+        <v>0.06227159528559238</v>
       </c>
       <c r="D101">
-        <v>-0.07051865196942028</v>
+        <v>0.008370622339071813</v>
       </c>
       <c r="E101">
-        <v>-0.07930455720701717</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.1161518246650622</v>
+      </c>
+      <c r="F101">
+        <v>0.03613676014081977</v>
+      </c>
+      <c r="G101">
+        <v>-0.07083476464300827</v>
+      </c>
+      <c r="H101">
+        <v>-0.1963018476203394</v>
+      </c>
+      <c r="I101">
+        <v>-0.06088937159594845</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.04837128394190836</v>
+        <v>-0.0184208847594347</v>
       </c>
       <c r="C102">
-        <v>0.1278276422244461</v>
+        <v>0.07708152907418794</v>
       </c>
       <c r="D102">
-        <v>0.05508702629759985</v>
+        <v>-0.03661603117689492</v>
       </c>
       <c r="E102">
-        <v>0.01396388275658652</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.07760872528501722</v>
+      </c>
+      <c r="F102">
+        <v>0.01351284791388747</v>
+      </c>
+      <c r="G102">
+        <v>0.03258238644068216</v>
+      </c>
+      <c r="H102">
+        <v>-0.003610261702269694</v>
+      </c>
+      <c r="I102">
+        <v>0.005601171667797516</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
